--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -1,8 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
@@ -18,14 +18,257 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+  <si>
+    <t>表名：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统用户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字段名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，自增长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>account</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号，非空唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>md5加密， 非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户类型，默认为一般用户 0， 非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQAccount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ账户表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否被删除，0 未删除 1 已删除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qqnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq号，非空唯一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qq密码，非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>statusDesc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未登录 已登陆 登陆成功 登陆失败 密码错误，状态描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isLogin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否登录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQFriends</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ好友表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>昵称 非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好友qq号，非空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>owner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外键 关联qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReceivcedMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接收消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息类型，群、讨论组、个人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自qq号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>属于谁qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给谁qq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupnum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendedMessage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isSend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否已经发送</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -49,11 +292,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -331,12 +576,613 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.875" customWidth="1"/>
+    <col min="2" max="2" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="48.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20">
+        <v>11</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>9</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31">
+        <v>20</v>
+      </c>
+      <c r="D31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39">
+        <v>11</v>
+      </c>
+      <c r="D39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41">
+        <v>20</v>
+      </c>
+      <c r="D41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42">
+        <v>20</v>
+      </c>
+      <c r="D42" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>51</v>
+      </c>
+      <c r="B46" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
   <si>
     <t>表名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,10 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>account</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>账号，非空唯一</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -165,10 +161,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>外键 关联qq</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ReceivcedMessage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -234,6 +226,10 @@
   </si>
   <si>
     <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>accountName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -578,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -636,7 +632,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -645,12 +641,12 @@
         <v>100</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -659,12 +655,12 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -673,12 +669,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -687,7 +683,7 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -695,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -737,21 +733,21 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
-      </c>
-      <c r="D12" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -760,26 +756,26 @@
         <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
-      </c>
-      <c r="D14" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
         <v>10</v>
@@ -788,12 +784,12 @@
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -802,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -810,13 +806,13 @@
         <v>0</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -852,7 +848,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
@@ -861,12 +857,12 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
@@ -875,26 +871,26 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C23">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>10</v>
@@ -903,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -911,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -950,7 +946,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" t="s">
         <v>10</v>
@@ -959,26 +955,26 @@
         <v>11</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30">
+        <v>20</v>
+      </c>
+      <c r="D30" t="s">
         <v>40</v>
-      </c>
-      <c r="B30" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30">
-        <v>20</v>
-      </c>
-      <c r="D30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -987,12 +983,12 @@
         <v>20</v>
       </c>
       <c r="D31" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -1001,12 +997,12 @@
         <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -1015,12 +1011,12 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
         <v>10</v>
@@ -1029,18 +1025,18 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
         <v>51</v>
-      </c>
-      <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1048,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -1073,7 +1069,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
@@ -1082,26 +1078,26 @@
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
         <v>40</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1110,12 +1106,12 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
         <v>12</v>
@@ -1124,12 +1120,12 @@
         <v>20</v>
       </c>
       <c r="D42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>12</v>
@@ -1138,12 +1134,12 @@
         <v>20</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
         <v>10</v>
@@ -1152,12 +1148,12 @@
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B45" t="s">
         <v>10</v>
@@ -1166,18 +1162,18 @@
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>49</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
         <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="D46" t="s">
-        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/数据库设计.xlsx
+++ b/数据库设计.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="60">
   <si>
     <t>表名：</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,10 +77,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -137,14 +133,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>QQFriends</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QQ好友表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>nick</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -217,7 +205,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>createTime</t>
+    <t>accountName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pwd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>createtime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -229,7 +225,39 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>accountName</t>
+    <t>updateTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQFriend</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QQ好友</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态， 正常、冻结、限制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型，企业、普通</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:D23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -632,7 +660,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -646,7 +674,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -655,12 +683,12 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -669,12 +697,12 @@
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
@@ -683,85 +711,79 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>12</v>
@@ -770,334 +792,339 @@
         <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C15">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>56</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23">
-        <v>20</v>
-      </c>
-      <c r="D23" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="D24" t="s">
-        <v>21</v>
+      <c r="A24" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>36</v>
+      <c r="A26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <v>11</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="C27">
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C29">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33">
-        <v>20</v>
-      </c>
-      <c r="D33" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
-      </c>
-      <c r="D34" t="s">
-        <v>21</v>
+      <c r="A34" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>46</v>
+      <c r="A37" t="s">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37">
+        <v>11</v>
+      </c>
+      <c r="D37" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D38" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C39">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D39" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40">
+        <v>20</v>
+      </c>
+      <c r="D40" t="s">
         <v>38</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>20</v>
-      </c>
-      <c r="D40" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>12</v>
@@ -1106,74 +1133,191 @@
         <v>20</v>
       </c>
       <c r="D41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C42">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
+        <v>49</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>14</v>
+      </c>
+      <c r="B48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51">
+        <v>20</v>
+      </c>
+      <c r="D51" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>40</v>
+      </c>
+      <c r="B52" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52">
+        <v>20</v>
+      </c>
+      <c r="D52" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53">
         <v>1</v>
       </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45">
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" t="s">
+        <v>10</v>
+      </c>
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B55" t="s">
         <v>49</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D55" t="s">
         <v>50</v>
       </c>
-      <c r="D46" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>51</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="D56" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
